--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/MEM_LOCAL/kernels/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/MEM_LOCAL/kernels/resultados.xlsx
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>6.08E-06</v>
+        <v>5.216000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.008E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.2544E-05</v>
+        <v>1.3024E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.976000000000001E-06</v>
       </c>
       <c r="C3" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>1.4112E-05</v>
+        <v>1.3312E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>6.400000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>2.6624E-05</v>
+        <v>2.6592E-05</v>
       </c>
       <c r="C4" s="1">
         <v>3.584E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>7.891200000000001E-05</v>
+        <v>7.782400000000001E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>1.8432E-05</v>
+        <v>1.8368E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>2.2528E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="C5" s="1">
         <v>3.072E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00011376</v>
+        <v>0.000115712</v>
       </c>
       <c r="E5" s="1">
-        <v>2.3264E-05</v>
+        <v>2.2496E-05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0768E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>5.3536E-05</v>
+        <v>5.424E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000214016</v>
+        <v>0.000212896</v>
       </c>
       <c r="E6" s="1">
-        <v>3.894400000000001E-05</v>
+        <v>3.8912E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000135168</v>
+        <v>0.000136064</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000197568</v>
+        <v>0.000196608</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000473088</v>
+        <v>0.000472384</v>
       </c>
       <c r="E7" s="1">
-        <v>8.7136E-05</v>
+        <v>8.707200000000001E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -548,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000278528</v>
+        <v>0.000279488</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000402464</v>
+        <v>0.000403456</v>
       </c>
       <c r="D8" s="1">
-        <v>0.001842176</v>
+        <v>0.001842048</v>
       </c>
       <c r="E8" s="1">
         <v>0.000280576</v>
@@ -565,13 +565,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001878016</v>
+        <v>0.001878976</v>
       </c>
       <c r="C9" s="1">
-        <v>0.003067904</v>
+        <v>0.003069024</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01067008</v>
+        <v>0.010643136</v>
       </c>
       <c r="E9" s="1">
         <v>0.001646592</v>
@@ -615,16 +615,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>6.08E-06</v>
+        <v>5.216000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.008E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.2544E-05</v>
+        <v>1.3024E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -632,16 +632,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.976000000000001E-06</v>
       </c>
       <c r="C3" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>1.4112E-05</v>
+        <v>1.3312E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>6.400000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -649,16 +649,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>2.6624E-05</v>
+        <v>2.6592E-05</v>
       </c>
       <c r="C4" s="1">
         <v>3.584E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>7.891200000000001E-05</v>
+        <v>7.782400000000001E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>1.8432E-05</v>
+        <v>1.8368E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -666,16 +666,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>2.2528E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="C5" s="1">
         <v>3.072E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00011376</v>
+        <v>0.000115712</v>
       </c>
       <c r="E5" s="1">
-        <v>2.3264E-05</v>
+        <v>2.2496E-05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -683,16 +683,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0768E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>5.3536E-05</v>
+        <v>5.424E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000214016</v>
+        <v>0.000212896</v>
       </c>
       <c r="E6" s="1">
-        <v>3.894400000000001E-05</v>
+        <v>3.8912E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -700,16 +700,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000135168</v>
+        <v>0.000136064</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000197568</v>
+        <v>0.000196608</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000473088</v>
+        <v>0.000472384</v>
       </c>
       <c r="E7" s="1">
-        <v>8.7136E-05</v>
+        <v>8.707200000000001E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -717,13 +717,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000278528</v>
+        <v>0.000279488</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000402464</v>
+        <v>0.000403456</v>
       </c>
       <c r="D8" s="1">
-        <v>0.001842176</v>
+        <v>0.001842048</v>
       </c>
       <c r="E8" s="1">
         <v>0.000280576</v>
@@ -734,13 +734,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001878016</v>
+        <v>0.001878976</v>
       </c>
       <c r="C9" s="1">
-        <v>0.003067904</v>
+        <v>0.003069024</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01067008</v>
+        <v>0.010643136</v>
       </c>
       <c r="E9" s="1">
         <v>0.001646592</v>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/MEM_LOCAL/kernels/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/MEM_LOCAL/kernels/resultados.xlsx
@@ -446,13 +446,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>5.216000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>7.008E-06</v>
+        <v>6.24E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.3024E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="E2" s="1">
         <v>7.168000000000001E-06</v>
@@ -463,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>6.976000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="C3" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>1.3312E-05</v>
+        <v>1.4304E-05</v>
       </c>
       <c r="E3" s="1">
         <v>7.168000000000001E-06</v>
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>2.6592E-05</v>
+        <v>2.56E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>3.584E-05</v>
+        <v>3.4816E-05</v>
       </c>
       <c r="D4" s="1">
         <v>7.782400000000001E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>1.8368E-05</v>
+        <v>1.8432E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
+        <v>2.2528E-05</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.1552E-05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.000114688</v>
+      </c>
+      <c r="E5" s="1">
         <v>2.1504E-05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.072E-05</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.000115712</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.2496E-05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>4.0608E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>5.424E-05</v>
+        <v>5.3248E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000212896</v>
+        <v>0.000213056</v>
       </c>
       <c r="E6" s="1">
-        <v>3.8912E-05</v>
+        <v>3.8976E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000136064</v>
+        <v>0.000135104</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000196608</v>
+        <v>0.000196416</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000472384</v>
+        <v>0.00047328</v>
       </c>
       <c r="E7" s="1">
         <v>8.707200000000001E-05</v>
@@ -548,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000279488</v>
+        <v>0.00027952</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000403456</v>
+        <v>0.000402432</v>
       </c>
       <c r="D8" s="1">
-        <v>0.001842048</v>
+        <v>0.001843104</v>
       </c>
       <c r="E8" s="1">
         <v>0.000280576</v>
@@ -565,13 +565,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001878976</v>
+        <v>0.001878688</v>
       </c>
       <c r="C9" s="1">
-        <v>0.003069024</v>
+        <v>0.003079168</v>
       </c>
       <c r="D9" s="1">
-        <v>0.010643136</v>
+        <v>0.011624512</v>
       </c>
       <c r="E9" s="1">
         <v>0.001646592</v>
@@ -615,13 +615,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>5.216000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>7.008E-06</v>
+        <v>6.24E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.3024E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="E2" s="1">
         <v>7.168000000000001E-06</v>
@@ -632,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>6.976000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="C3" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>1.3312E-05</v>
+        <v>1.4304E-05</v>
       </c>
       <c r="E3" s="1">
         <v>7.168000000000001E-06</v>
@@ -649,16 +649,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>2.6592E-05</v>
+        <v>2.56E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>3.584E-05</v>
+        <v>3.4816E-05</v>
       </c>
       <c r="D4" s="1">
         <v>7.782400000000001E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>1.8368E-05</v>
+        <v>1.8432E-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -666,16 +666,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
+        <v>2.2528E-05</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.1552E-05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.000114688</v>
+      </c>
+      <c r="E5" s="1">
         <v>2.1504E-05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.072E-05</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.000115712</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.2496E-05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -683,16 +683,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>4.0608E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>5.424E-05</v>
+        <v>5.3248E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000212896</v>
+        <v>0.000213056</v>
       </c>
       <c r="E6" s="1">
-        <v>3.8912E-05</v>
+        <v>3.8976E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000136064</v>
+        <v>0.000135104</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000196608</v>
+        <v>0.000196416</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000472384</v>
+        <v>0.00047328</v>
       </c>
       <c r="E7" s="1">
         <v>8.707200000000001E-05</v>
@@ -717,13 +717,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000279488</v>
+        <v>0.00027952</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000403456</v>
+        <v>0.000402432</v>
       </c>
       <c r="D8" s="1">
-        <v>0.001842048</v>
+        <v>0.001843104</v>
       </c>
       <c r="E8" s="1">
         <v>0.000280576</v>
@@ -734,13 +734,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001878976</v>
+        <v>0.001878688</v>
       </c>
       <c r="C9" s="1">
-        <v>0.003069024</v>
+        <v>0.003079168</v>
       </c>
       <c r="D9" s="1">
-        <v>0.010643136</v>
+        <v>0.011624512</v>
       </c>
       <c r="E9" s="1">
         <v>0.001646592</v>
